--- a/output.xlsx
+++ b/output.xlsx
@@ -1,91 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">     WA
-  100°
- CATASY01
-Catheter
-Assembly 1 |
-Uy
-Line Clearance |
-Confirmation
-Reqd(Milestone
-) |
- ——— = ——
-Line Clearance
-Perform Line Clearance and Heat Gun Setting
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150
- CATASYO1
-Catheter
-Assembly 1
-QO
-Major and Minor
-Mandrel
-Assembly
- — — —
-Major and Minor Mandrel Assembly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NA |
-  A
-  fa}
-Lp
- pbJan24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,36 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,77 +420,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     WA
+  100°
+ CATASY01
+Catheter
+Assembly 1 |
+Uy
+Line Clearance |
+Confirmation
+Reqd(Milestone
+) |
+ ——— = ——
+Line Clearance
+Perform Line Clearance and Heat Gun Setting
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    NA |
+  A
+  fa}
+Lp
+ pbJan24
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Wh
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 150
+ CATASYO1
+Catheter
+Assembly 1
+QO
+Major and Minor
+Mandrel
+Assembly
+ — — —
+Major and Minor Mandrel Assembly
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
   <si>
     <t>50</t>
   </si>
@@ -22,10 +22,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>1 00</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>200</t>
@@ -76,7 +76,7 @@
     <t>950</t>
   </si>
   <si>
-    <t>1000</t>
+    <t>1 000</t>
   </si>
   <si>
     <t>1050</t>
@@ -91,34 +91,37 @@
     <t>KITTING3</t>
   </si>
   <si>
+    <t>CATASY01 1</t>
+  </si>
+  <si>
+    <t>CATASYO 1</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
     <t>CATASY01</t>
   </si>
   <si>
+    <t>Load</t>
+  </si>
+  <si>
     <t>CA TASYO 1</t>
   </si>
   <si>
-    <t>Confirmation</t>
-  </si>
-  <si>
-    <t>CATASY01 1</t>
-  </si>
-  <si>
-    <t>CATASYO 1</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
     <t>Assembly</t>
   </si>
   <si>
+    <t>CA TASYO</t>
+  </si>
+  <si>
     <t>Reqd(Milestone</t>
   </si>
   <si>
-    <t>-</t>
+    <t>CATASYO</t>
   </si>
   <si>
     <t>Major</t>
@@ -130,73 +133,205 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>QUALITY1 1</t>
+  </si>
+  <si>
     <t>QUALITY 1</t>
   </si>
   <si>
     <t>PACKINT1</t>
   </si>
   <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>50 0</t>
+  </si>
+  <si>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>5 00</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>4 16</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>4 76</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TALLY 5</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>TALLY 2</t>
+  </si>
+  <si>
+    <t>D IS</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>TALLY 1</t>
+  </si>
+  <si>
+    <t>4/22 473</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>SKV</t>
+  </si>
+  <si>
+    <t>#5us</t>
+  </si>
+  <si>
+    <t>OAL</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>(PP)</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>#6 us</t>
+  </si>
+  <si>
+    <t>Elt</t>
+  </si>
+  <si>
+    <t>TALLY 4</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>46 8</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>(1</t>
-  </si>
-  <si>
-    <t>TALLY 5</t>
-  </si>
-  <si>
-    <t>TALLY 1</t>
-  </si>
-  <si>
-    <t>TALLY 2</t>
-  </si>
-  <si>
-    <t>TALLY 4</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t># 105</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>#9 OS</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Dis</t>
+  </si>
+  <si>
+    <t>(TT)</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DN T</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>DISC</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>S TN</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>PB C</t>
   </si>
 </sst>
 </file>
@@ -554,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:AW37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:49">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -624,8 +759,92 @@
       <c r="U1" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -649,8 +868,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -658,13 +880,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -672,13 +894,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -692,40 +914,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -734,21 +956,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -759,15 +981,15 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -776,35 +998,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -818,36 +1040,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -857,65 +1082,74 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -924,21 +1158,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -946,13 +1180,13 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -965,41 +1199,38 @@
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1008,26 +1239,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1036,120 +1276,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="N29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" t="s">
+        <v>94</v>
+      </c>
+      <c r="T29" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R31" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1163,72 +1457,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
         <v>56</v>
       </c>
-      <c r="J34" t="s">
-        <v>55</v>
-      </c>
       <c r="K34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O34" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>63</v>
+      </c>
+      <c r="V34" t="s">
+        <v>63</v>
+      </c>
+      <c r="W34" t="s">
+        <v>66</v>
+      </c>
+      <c r="X34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1242,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1256,18 +1634,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="106">
   <si>
     <t>50</t>
   </si>
@@ -172,166 +172,166 @@
     <t>473</t>
   </si>
   <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TALLY 5</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>TALLY 5</t>
-  </si>
-  <si>
-    <t>470</t>
+    <t>TALLY 1</t>
+  </si>
+  <si>
+    <t>(PP)</t>
+  </si>
+  <si>
+    <t>4/22 473</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>TALLY 2</t>
   </si>
   <si>
+    <t>SKV</t>
+  </si>
+  <si>
+    <t>TALLY 4</t>
+  </si>
+  <si>
     <t>D IS</t>
   </si>
   <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>:</t>
   </si>
   <si>
-    <t>TALLY 1</t>
-  </si>
-  <si>
-    <t>4/22 473</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>OAL</t>
   </si>
   <si>
     <t>IDB</t>
   </si>
   <si>
-    <t>SKV</t>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t># 105</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>(TT)</t>
+  </si>
+  <si>
+    <t>PB C</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>Elt</t>
+  </si>
+  <si>
+    <t>#9 OS</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>S TN</t>
   </si>
   <si>
     <t>#5us</t>
   </si>
   <si>
-    <t>OAL</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>(PP)</t>
-  </si>
-  <si>
-    <t>EW</t>
+    <t>Dis</t>
   </si>
   <si>
     <t>#6 us</t>
   </si>
   <si>
-    <t>Elt</t>
-  </si>
-  <si>
-    <t>TALLY 4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t># 105</t>
-  </si>
-  <si>
-    <t>DIS</t>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>VD</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>#9 OS</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>MAR</t>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>DN T</t>
   </si>
   <si>
     <t>BP</t>
   </si>
   <si>
-    <t>Dis</t>
-  </si>
-  <si>
-    <t>(TT)</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>DN T</t>
-  </si>
-  <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>12V</t>
-  </si>
-  <si>
-    <t>AB</t>
+    <t>SCR</t>
   </si>
   <si>
     <t>DISC</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>S TN</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>PB C</t>
   </si>
 </sst>
 </file>
@@ -857,6 +857,9 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" t="s">
@@ -869,6 +872,9 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -885,6 +891,9 @@
       <c r="D4" t="s">
         <v>58</v>
       </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" t="s">
@@ -899,6 +908,9 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6" t="s">
@@ -911,6 +923,9 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -927,6 +942,9 @@
       <c r="D7" t="s">
         <v>59</v>
       </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" t="s">
@@ -941,6 +959,9 @@
       <c r="D8" t="s">
         <v>60</v>
       </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" t="s">
@@ -953,6 +974,9 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -969,6 +993,9 @@
       <c r="D10" t="s">
         <v>60</v>
       </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" t="s">
@@ -983,6 +1010,9 @@
       <c r="D11" t="s">
         <v>59</v>
       </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" t="s">
@@ -995,6 +1025,9 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1011,6 +1044,9 @@
       <c r="D13" t="s">
         <v>58</v>
       </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
@@ -1025,6 +1061,9 @@
       <c r="D14" t="s">
         <v>60</v>
       </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15" t="s">
@@ -1037,6 +1076,9 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1054,25 +1096,40 @@
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1082,8 +1139,11 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1159,11 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1117,34 +1180,37 @@
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>84</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1157,8 +1223,11 @@
       <c r="D20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1171,8 +1240,11 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1185,8 +1257,11 @@
       <c r="D22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1199,8 +1274,11 @@
       <c r="D23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1238,8 +1316,11 @@
       <c r="D26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1253,16 +1334,16 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1275,8 +1356,11 @@
       <c r="D28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1293,55 +1377,64 @@
         <v>63</v>
       </c>
       <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R29" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="S29" t="s">
+        <v>67</v>
+      </c>
+      <c r="T29" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V29" t="s">
+        <v>96</v>
+      </c>
+      <c r="W29" t="s">
         <v>63</v>
       </c>
-      <c r="J29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" t="s">
-        <v>83</v>
-      </c>
-      <c r="N29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O29" t="s">
-        <v>66</v>
-      </c>
-      <c r="P29" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>90</v>
-      </c>
-      <c r="R29" t="s">
-        <v>92</v>
-      </c>
-      <c r="S29" t="s">
-        <v>94</v>
-      </c>
-      <c r="T29" t="s">
-        <v>66</v>
-      </c>
-      <c r="U29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="X29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1354,8 +1447,11 @@
       <c r="D30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1468,7 @@
         <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
         <v>61</v>
@@ -1381,7 +1477,7 @@
         <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
@@ -1390,31 +1486,31 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R31" t="s">
         <v>61</v>
       </c>
       <c r="S31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1428,19 +1524,22 @@
         <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>61</v>
       </c>
       <c r="I32" t="s">
         <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:49">
@@ -1454,6 +1553,9 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1468,22 +1570,22 @@
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>56</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
         <v>56</v>
@@ -1492,19 +1594,19 @@
         <v>56</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="P34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q34" t="s">
         <v>63</v>
@@ -1516,28 +1618,28 @@
         <v>81</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U34" t="s">
+        <v>61</v>
+      </c>
+      <c r="V34" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34" t="s">
+        <v>97</v>
+      </c>
+      <c r="X34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y34" t="s">
         <v>63</v>
       </c>
-      <c r="V34" t="s">
+      <c r="Z34" t="s">
         <v>63</v>
       </c>
-      <c r="W34" t="s">
-        <v>66</v>
-      </c>
-      <c r="X34" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>71</v>
-      </c>
       <c r="AA34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB34" t="s">
         <v>98</v>
@@ -1546,64 +1648,64 @@
         <v>61</v>
       </c>
       <c r="AD34" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="AE34" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AF34" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="AG34" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AH34" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AK34" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AL34" t="s">
         <v>102</v>
       </c>
       <c r="AM34" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AN34" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AO34" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AP34" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AQ34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR34" t="s">
         <v>61</v>
       </c>
       <c r="AS34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AT34" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AU34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV34" t="s">
         <v>105</v>
       </c>
-      <c r="AV34" t="s">
-        <v>66</v>
-      </c>
       <c r="AW34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:49">
@@ -1619,6 +1721,9 @@
       <c r="D35" t="s">
         <v>1</v>
       </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:49">
       <c r="A36" t="s">
@@ -1633,6 +1738,9 @@
       <c r="D36" t="s">
         <v>1</v>
       </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:49">
       <c r="A37" t="s">
@@ -1648,6 +1756,12 @@
         <v>58</v>
       </c>
       <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
         <v>58</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="85">
   <si>
     <t>50</t>
   </si>
@@ -22,10 +22,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>1 00</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
   <si>
     <t>200</t>
@@ -76,7 +76,7 @@
     <t>950</t>
   </si>
   <si>
-    <t>1 000</t>
+    <t>1000</t>
   </si>
   <si>
     <t>1050</t>
@@ -91,10 +91,7 @@
     <t>KITTING3</t>
   </si>
   <si>
-    <t>CATASY01 1</t>
-  </si>
-  <si>
-    <t>CATASYO 1</t>
+    <t>CATASY01</t>
   </si>
   <si>
     <t>Confirmation</t>
@@ -103,27 +100,15 @@
     <t>Trim</t>
   </si>
   <si>
-    <t>CATASY01</t>
-  </si>
-  <si>
     <t>Load</t>
   </si>
   <si>
-    <t>CA TASYO 1</t>
-  </si>
-  <si>
     <t>Assembly</t>
   </si>
   <si>
-    <t>CA TASYO</t>
-  </si>
-  <si>
     <t>Reqd(Milestone</t>
   </si>
   <si>
-    <t>CATASYO</t>
-  </si>
-  <si>
     <t>Major</t>
   </si>
   <si>
@@ -133,205 +118,158 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>QUALITY1 1</t>
-  </si>
-  <si>
-    <t>QUALITY 1</t>
-  </si>
-  <si>
     <t>PACKINT1</t>
   </si>
   <si>
     <t>560</t>
   </si>
   <si>
-    <t>50 0</t>
-  </si>
-  <si>
-    <t>SOU</t>
-  </si>
-  <si>
-    <t>5 00</t>
-  </si>
-  <si>
     <t>487</t>
   </si>
   <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>4 16</t>
-  </si>
-  <si>
     <t>476</t>
   </si>
   <si>
-    <t>4 76</t>
+    <t>92h</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>Elt</t>
+  </si>
+  <si>
+    <t>о</t>
   </si>
   <si>
     <t>473</t>
   </si>
   <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>TALLY 5</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>TALLY 1</t>
-  </si>
-  <si>
-    <t>(PP)</t>
-  </si>
-  <si>
-    <t>4/22 473</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>TALLY 2</t>
-  </si>
-  <si>
     <t>SKV</t>
   </si>
   <si>
-    <t>TALLY 4</t>
-  </si>
-  <si>
-    <t>D IS</t>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>OAL</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ACD-111</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Number_1</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>DEL</t>
   </si>
   <si>
     <t>LT</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>:</t>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>(TT)</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>MAH</t>
+  </si>
+  <si>
+    <t>TD</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>OAL</t>
-  </si>
-  <si>
-    <t>IDB</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t># 105</t>
-  </si>
-  <si>
-    <t>DIS</t>
+    <t>ི
+SP)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>#105</t>
+  </si>
+  <si>
+    <t>#545</t>
+  </si>
+  <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>#645</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>DISC</t>
+  </si>
+  <si>
+    <t>VD</t>
   </si>
   <si>
     <t>FB</t>
   </si>
   <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>(TT)</t>
-  </si>
-  <si>
-    <t>PB C</t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>Elt</t>
-  </si>
-  <si>
-    <t>#9 OS</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>S TN</t>
-  </si>
-  <si>
-    <t>#5us</t>
-  </si>
-  <si>
-    <t>Dis</t>
-  </si>
-  <si>
-    <t>#6 us</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>12V</t>
-  </si>
-  <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
-    <t>DN T</t>
+    <t>PBC</t>
   </si>
   <si>
     <t>BP</t>
   </si>
   <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>DISC</t>
+    <t>STN</t>
   </si>
 </sst>
 </file>
@@ -689,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:40">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -816,35 +754,8 @@
       <c r="AN1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49">
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -857,11 +768,8 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49">
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -874,11 +782,8 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49">
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -886,89 +791,74 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49">
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -976,50 +866,41 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49">
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49">
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1027,62 +908,50 @@
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49">
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49">
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1090,46 +959,28 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1139,83 +990,65 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1223,50 +1056,41 @@
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1274,41 +1098,44 @@
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1316,39 +1143,30 @@
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1356,90 +1174,78 @@
       <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" t="s">
         <v>76</v>
       </c>
-      <c r="K29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>91</v>
-      </c>
-      <c r="R29" t="s">
-        <v>63</v>
-      </c>
       <c r="S29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s">
-        <v>95</v>
-      </c>
-      <c r="V29" t="s">
-        <v>96</v>
-      </c>
-      <c r="W29" t="s">
-        <v>63</v>
-      </c>
-      <c r="X29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1447,102 +1253,96 @@
       <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q31" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1555,165 +1355,135 @@
       <c r="D33" t="s">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:49">
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" t="s">
         <v>75</v>
       </c>
-      <c r="J34" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="Q34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" t="s">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG34" t="s">
         <v>82</v>
       </c>
-      <c r="N34" t="s">
-        <v>87</v>
-      </c>
-      <c r="O34" t="s">
-        <v>67</v>
-      </c>
-      <c r="P34" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" t="s">
-        <v>93</v>
-      </c>
-      <c r="S34" t="s">
-        <v>81</v>
-      </c>
-      <c r="T34" t="s">
-        <v>63</v>
-      </c>
-      <c r="U34" t="s">
-        <v>61</v>
-      </c>
-      <c r="V34" t="s">
-        <v>61</v>
-      </c>
-      <c r="W34" t="s">
-        <v>97</v>
-      </c>
-      <c r="X34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>69</v>
-      </c>
       <c r="AH34" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AI34" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AJ34" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="AL34" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="AM34" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AN34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1721,16 +1491,13 @@
       <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49">
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1738,31 +1505,19 @@
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49">
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
